--- a/backend/uploads/expense_details.xlsx
+++ b/backend/uploads/expense_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Category</t>
   </si>
@@ -22,10 +22,34 @@
     <t>Date</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>27/12/2025</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>gogo</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
     <t>rent</t>
   </si>
   <si>
-    <t>13/7/2025</t>
+    <t>30/8/2025</t>
   </si>
 </sst>
 </file>
@@ -402,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -426,10 +450,65 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>30000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>8000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
